--- a/Experiments/numbers.xlsx
+++ b/Experiments/numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuma/code/diffvg/Experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{350608D8-76F5-C145-8476-95BD118712C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4367EB7F-24A5-4741-9396-E77B8AC52778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{812348A6-2D8B-B54D-B3AA-4184EDCAF7C4}"/>
   </bookViews>
@@ -31,6 +31,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>emoji demo2</t>
+  </si>
+  <si>
+    <t>LIVE</t>
+  </si>
+  <si>
+    <t>DiffVG</t>
+  </si>
+  <si>
+    <t>NeuralPainter</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -81,6 +98,1225 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16496566279730498"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.78967351246042694"/>
+          <c:h val="0.80831802274715658"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>DiffVG</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>loss_for_large_fig!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>loss_for_large_fig!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.21379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.44E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77CC-7849-A52A-8C533FDD59BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Painter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>loss_for_large_fig!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>loss_for_large_fig!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.44700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.78E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2200000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-77CC-7849-A52A-8C533FDD59BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>LIVE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>loss_for_large_fig!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>loss_for_large_fig!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-77CC-7849-A52A-8C533FDD59BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="426766303"/>
+        <c:axId val="743293871"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="426766303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of paths/strokes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="743293871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="743293871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MSE loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426766303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.64559915577563121"/>
+          <c:y val="7.0022601341498972E-2"/>
+          <c:w val="0.31498725545904704"/>
+          <c:h val="0.24016258384368622"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B3BE1C-6603-E248-A73F-182463530F48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,14 +1616,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C8519F-C93E-4842-9A67-2D49A2D0E8A2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="D3">
+        <v>1.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1.44E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.1198</v>
+      </c>
+      <c r="D4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="C5">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="C6">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C7">
+        <v>1.78E-2</v>
+      </c>
+      <c r="D7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C8">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="D8">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Experiments/numbers.xlsx
+++ b/Experiments/numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuma/code/diffvg/Experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4367EB7F-24A5-4741-9396-E77B8AC52778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C349094E-C061-FA4E-AD7C-FB182F805DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{812348A6-2D8B-B54D-B3AA-4184EDCAF7C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>emoji demo2</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>NeuralPainter</t>
+  </si>
+  <si>
+    <t>yosemite</t>
   </si>
 </sst>
 </file>
@@ -121,10 +124,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16496566279730498"/>
+          <c:x val="0.16909278209806936"/>
           <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.78967351246042694"/>
-          <c:h val="0.80831802274715658"/>
+          <c:w val="0.78554632280539838"/>
+          <c:h val="0.6976168753813522"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -430,20 +433,22 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
                   <a:t>Number of paths/strokes</a:t>
                 </a:r>
               </a:p>
@@ -462,14 +467,14 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times" pitchFamily="2" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -507,7 +512,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -550,20 +555,22 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
                   <a:t>MSE loss</a:t>
                 </a:r>
               </a:p>
@@ -582,14 +589,14 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times" pitchFamily="2" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -621,7 +628,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -651,7 +658,7 @@
           <c:x val="0.64559915577563121"/>
           <c:y val="7.0022601341498972E-2"/>
           <c:w val="0.31498725545904704"/>
-          <c:h val="0.24016258384368622"/>
+          <c:h val="0.35612918327405607"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -667,14 +674,624 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16909278209806936"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.78554632280539838"/>
+          <c:h val="0.6976168753813522"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>DiffVG</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>loss_for_large_fig!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>loss_for_large_fig!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7999999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC89-344F-A8AB-AE0D0615F058}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Painter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>loss_for_large_fig!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>loss_for_large_fig!$H$3:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7999999999999997E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC89-344F-A8AB-AE0D0615F058}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>LIVE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>loss_for_large_fig!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>loss_for_large_fig!$I$3:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.1900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5999999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BC89-344F-A8AB-AE0D0615F058}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="426766303"/>
+        <c:axId val="743293871"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="426766303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of paths/strokes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="743293871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="743293871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5000000000000005E-2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>MSE loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426766303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-3"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.64559915577563121"/>
+          <c:y val="7.0022601341498972E-2"/>
+          <c:w val="0.31498725545904704"/>
+          <c:h val="0.35612918327405607"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times" pitchFamily="2" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -762,6 +1379,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1278,20 +1935,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>176530</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1311,6 +2484,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>524510</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>115570</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0723BD04-E327-1841-B28F-BED9A6A274E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1616,10 +2827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C8519F-C93E-4842-9A67-2D49A2D0E8A2}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1627,12 +2838,15 @@
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1642,8 +2856,17 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1656,8 +2879,20 @@
       <c r="D3">
         <v>1.5100000000000001E-2</v>
       </c>
+      <c r="F3">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <v>1.41E-2</v>
+      </c>
+      <c r="H3">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="I3">
+        <v>1.1900000000000001E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1670,8 +2905,20 @@
       <c r="D4">
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="F4">
+        <v>64</v>
+      </c>
+      <c r="G4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="I4">
+        <v>9.4000000000000004E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1684,8 +2931,20 @@
       <c r="D5">
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="F5">
+        <v>128</v>
+      </c>
+      <c r="G5">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="H5">
+        <v>1.41E-2</v>
+      </c>
+      <c r="I5">
+        <v>7.0000000000000001E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>16</v>
       </c>
@@ -1698,8 +2957,20 @@
       <c r="D6">
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="F6">
+        <v>256</v>
+      </c>
+      <c r="G6">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H6">
+        <v>1.15E-2</v>
+      </c>
+      <c r="I6">
+        <v>5.1000000000000004E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>32</v>
       </c>
@@ -1712,8 +2983,20 @@
       <c r="D7">
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="F7">
+        <v>512</v>
+      </c>
+      <c r="G7">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="H7">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="I7">
+        <v>3.5999999999999999E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>64</v>
       </c>

--- a/Experiments/numbers.xlsx
+++ b/Experiments/numbers.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuma/code/diffvg/Experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C349094E-C061-FA4E-AD7C-FB182F805DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39181E3-85C8-EB40-AC66-36BC38DBA69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{812348A6-2D8B-B54D-B3AA-4184EDCAF7C4}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" activeTab="1" xr2:uid="{812348A6-2D8B-B54D-B3AA-4184EDCAF7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="loss_for_large_fig" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>emoji demo2</t>
   </si>
@@ -84,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,10 +126,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16909278209806936"/>
+          <c:x val="0.20704328467480465"/>
           <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.78554632280539838"/>
-          <c:h val="0.6976168753813522"/>
+          <c:w val="0.74759571087769627"/>
+          <c:h val="0.71413226525875018"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -655,9 +657,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.64559915577563121"/>
+          <c:x val="0.47482107905392279"/>
           <c:y val="7.0022601341498972E-2"/>
-          <c:w val="0.31498725545904704"/>
+          <c:w val="0.48576501466728422"/>
           <c:h val="0.35612918327405607"/>
         </c:manualLayout>
       </c:layout>
@@ -750,10 +752,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16909278209806936"/>
+          <c:x val="0.29718137254901961"/>
           <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.78554632280539838"/>
-          <c:h val="0.6976168753813522"/>
+          <c:w val="0.66299743322525861"/>
+          <c:h val="0.72238990357419197"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1265,9 +1267,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.64559915577563121"/>
-          <c:y val="7.0022601341498972E-2"/>
-          <c:w val="0.31498725545904704"/>
+          <c:x val="0.55368756754670367"/>
+          <c:y val="3.9617157681879362E-3"/>
+          <c:w val="0.43753618573413616"/>
           <c:h val="0.35612918327405607"/>
         </c:manualLayout>
       </c:layout>
@@ -1290,6 +1292,548 @@
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:t>MSE Loss on</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:t> Emoji</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17399999999999999"/>
+          <c:y val="0.15740740740740741"/>
+          <c:w val="0.78200000000000003"/>
+          <c:h val="0.69444444444444453"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>DiffVG</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.0399999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0800000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.24E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5999999999999995E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F11-5B47-8301-982D993F4CA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LIVE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.7017E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>3.5100000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>3.0800000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6F11-5B47-8301-982D993F4CA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="767903375"/>
+        <c:axId val="1211414447"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="767903375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>Path Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1211414447"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1211414447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>MSE loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767903375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2.0000000000000005E-3"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.68192031496062988"/>
+          <c:y val="0.22280037911927675"/>
+          <c:w val="0.25460818897637794"/>
+          <c:h val="0.18923665791776031"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Times" pitchFamily="2" charset="0"/>
               <a:ea typeface="+mn-ea"/>
@@ -1419,6 +1963,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2451,19 +3035,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>34290</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13970</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>176530</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2497,8 +3584,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>524510</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>115570</xdr:rowOff>
     </xdr:to>
@@ -2522,6 +3609,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DDBDC3-1004-C44C-BA20-426F099EBBF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2829,8 +3957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C8519F-C93E-4842-9A67-2D49A2D0E8A2}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3014,4 +4142,72 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F3EB8B-2B21-9447-8570-AB11CC6FB039}">
+  <dimension ref="A2:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9.0399999999999994E-3</v>
+      </c>
+      <c r="C3">
+        <v>1.7017E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4.0800000000000003E-3</v>
+      </c>
+      <c r="C4">
+        <v>5.2599999999999999E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.24E-3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.5100000000000002E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.0800000000000001E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Experiments/numbers.xlsx
+++ b/Experiments/numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuma/code/diffvg/Experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39181E3-85C8-EB40-AC66-36BC38DBA69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F3C37F-8FC4-EC4B-A512-7B7B6A780BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" activeTab="1" xr2:uid="{812348A6-2D8B-B54D-B3AA-4184EDCAF7C4}"/>
   </bookViews>
@@ -16,6 +16,17 @@
     <sheet name="loss_for_large_fig" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$3:$A$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$3:$B$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$C$3:$C$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$G$3:$G$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$H$3:$H$6</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$I$3:$I$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$G$3:$G$6</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$H$3:$H$6</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$I$3:$I$6</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>emoji demo2</t>
   </si>
@@ -51,18 +62,33 @@
   <si>
     <t>yosemite</t>
   </si>
+  <si>
+    <t>emoji</t>
+  </si>
+  <si>
+    <t>Pics</t>
+  </si>
+  <si>
+    <t>LIVE-new</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,9 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1434,12 +1461,11 @@
           <c:x val="0.17399999999999999"/>
           <c:y val="0.15740740740740741"/>
           <c:w val="0.78200000000000003"/>
-          <c:h val="0.69444444444444453"/>
+          <c:h val="0.63252480436849423"/>
         </c:manualLayout>
       </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1448,15 +1474,29 @@
             <c:v>DiffVG</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$A$3:$A$6</c:f>
@@ -1499,6 +1539,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6F11-5B47-8301-982D993F4CA2}"/>
@@ -1512,15 +1553,29 @@
             <c:v>LIVE</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet2!$A$3:$A$6</c:f>
@@ -1563,6 +1618,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6F11-5B47-8301-982D993F4CA2}"/>
@@ -1577,11 +1633,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="767903375"/>
         <c:axId val="1211414447"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="767903375"/>
         <c:scaling>
@@ -1812,10 +1868,581 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.68192031496062988"/>
+          <c:x val="0.5779203149606299"/>
           <c:y val="0.22280037911927675"/>
-          <c:w val="0.25460818897637794"/>
-          <c:h val="0.18923665791776031"/>
+          <c:w val="0.35860818897637797"/>
+          <c:h val="0.29449989030009016"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:t>MSE Loss on</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:t> Pics</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17799999999999999"/>
+          <c:y val="0.15740740740740741"/>
+          <c:w val="0.77800000000000002"/>
+          <c:h val="0.63701939696562315"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>DiffVG</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$3:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8999999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88D2-1541-9BFE-5EBF201B5DF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LIVE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$3:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.6472370000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7495000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5196900000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6164840000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-88D2-1541-9BFE-5EBF201B5DF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="767903375"/>
+        <c:axId val="1211414447"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="767903375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>Path Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1211414447"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1211414447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>MSE loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767903375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="4.000000000000001E-3"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.67792031496062977"/>
+          <c:y val="0.16583823382836638"/>
+          <c:w val="0.28607968503937009"/>
+          <c:h val="0.29025316455696204"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2003,6 +2630,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3036,6 +3703,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3629,8 +4799,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3650,6 +4820,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4395DCD2-1B7B-0F4B-A7EC-5A25AF5A7F3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4146,23 +5354,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F3EB8B-2B21-9447-8570-AB11CC6FB039}">
-  <dimension ref="A2:C6"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>8</v>
       </c>
@@ -4172,8 +5397,20 @@
       <c r="C3">
         <v>1.7017E-3</v>
       </c>
+      <c r="G3">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>9.3600000000000003E-3</v>
+      </c>
+      <c r="K3" s="2">
+        <v>8.6472370000000003E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>16</v>
       </c>
@@ -4183,8 +5420,20 @@
       <c r="C4">
         <v>5.2599999999999999E-4</v>
       </c>
+      <c r="G4">
+        <v>64</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6.1500000000000001E-3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4.7495000000000002E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>32</v>
       </c>
@@ -4194,8 +5443,20 @@
       <c r="C5" s="1">
         <v>3.5100000000000002E-4</v>
       </c>
+      <c r="G5">
+        <v>128</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4.8799999999999998E-3</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2.5196900000000002E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>64</v>
       </c>
@@ -4204,6 +5465,79 @@
       </c>
       <c r="C6" s="1">
         <v>3.0800000000000001E-4</v>
+      </c>
+      <c r="G6">
+        <v>256</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.6164840000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Experiments/numbers.xlsx
+++ b/Experiments/numbers.xlsx
@@ -8,25 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuma/code/diffvg/Experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F3C37F-8FC4-EC4B-A512-7B7B6A780BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB97CA0-7F65-6F45-8A3E-F37AD6456341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" activeTab="1" xr2:uid="{812348A6-2D8B-B54D-B3AA-4184EDCAF7C4}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" activeTab="1" xr2:uid="{812348A6-2D8B-B54D-B3AA-4184EDCAF7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="loss_for_large_fig" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$3:$A$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$3:$B$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$C$3:$C$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$G$3:$G$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$H$3:$H$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$I$3:$I$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$G$3:$G$6</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$H$3:$H$6</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$I$3:$I$6</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1405,7 +1394,7 @@
                 </a:solidFill>
                 <a:latin typeface="Times" pitchFamily="2" charset="0"/>
               </a:rPr>
-              <a:t>MSE Loss on</a:t>
+              <a:t>MSE on</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0">
@@ -1764,63 +1753,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400">
-                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
-                  </a:rPr>
-                  <a:t>MSE loss</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times" pitchFamily="2" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1976,7 +1908,7 @@
                 </a:solidFill>
                 <a:latin typeface="Times" pitchFamily="2" charset="0"/>
               </a:rPr>
-              <a:t>MSE Loss on</a:t>
+              <a:t>MSE on</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0">
@@ -2335,63 +2267,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400">
-                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
-                  </a:rPr>
-                  <a:t>MSE loss</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times" pitchFamily="2" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4792,7 +4667,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
@@ -4827,14 +4702,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -5357,7 +5232,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
